--- a/Data/degradation_month.xlsx
+++ b/Data/degradation_month.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natomanzolli/Documents/GitHub/Battery-degradation/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9E6BA2-7EC7-AD4C-A68C-F9B55FE6A0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77ED0720-9764-B548-B52D-ADC9E9638839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="980" windowWidth="27840" windowHeight="16740" xr2:uid="{1300755C-6DF9-ED4F-B465-FA43BE9007F9}"/>
+    <workbookView xWindow="-34140" yWindow="300" windowWidth="27840" windowHeight="16740" activeTab="1" xr2:uid="{1300755C-6DF9-ED4F-B465-FA43BE9007F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Months" sheetId="1" r:id="rId1"/>
-    <sheet name="Folha1" sheetId="2" r:id="rId2"/>
+    <sheet name="Aux" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -426,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A15EC2E-EA31-B84C-A511-54AB01276A6E}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -472,502 +472,502 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
-        <f>Folha1!A1*1000</f>
-        <v>2066489.9999999998</v>
+        <f>Aux!A1*1000</f>
+        <v>2876540</v>
       </c>
       <c r="B2">
-        <f>Folha1!B1*1000</f>
-        <v>2066489.9999999998</v>
+        <f>Aux!B1*1000</f>
+        <v>2876540</v>
       </c>
       <c r="C2">
-        <f>Folha1!C1*1000</f>
-        <v>2062793.4838709675</v>
+        <f>Aux!C1*1000</f>
+        <v>2871390</v>
       </c>
       <c r="D2">
-        <f>Folha1!D1*1000</f>
-        <v>2053120.9333333331</v>
+        <f>Aux!D1*1000</f>
+        <v>2857930</v>
       </c>
       <c r="E2">
-        <f>Folha1!E1*1000</f>
-        <v>1994407.935483871</v>
+        <f>Aux!E1*1000</f>
+        <v>2776200</v>
       </c>
       <c r="F2">
-        <f>Folha1!F1*1000</f>
-        <v>1858314.5333333332</v>
+        <f>Aux!F1*1000</f>
+        <v>2586760</v>
       </c>
       <c r="G2">
-        <f>Folha1!G1*1000</f>
-        <v>1700534.9032258063</v>
+        <f>Aux!G1*1000</f>
+        <v>2367130</v>
       </c>
       <c r="H2">
-        <f>Folha1!H1*1000</f>
-        <v>1694990.1290322579</v>
+        <f>Aux!H1*1000</f>
+        <v>2359410</v>
       </c>
       <c r="I2">
-        <f>Folha1!I1*1000</f>
-        <v>1850675.0666666667</v>
+        <f>Aux!I1*1000</f>
+        <v>2576130</v>
       </c>
       <c r="J2">
-        <f>Folha1!J1*1000</f>
-        <v>2023980.0645161287</v>
+        <f>Aux!J1*1000</f>
+        <v>2817370</v>
       </c>
       <c r="K2">
-        <f>Folha1!K1*1000</f>
-        <v>2066489.9999999998</v>
+        <f>Aux!K1*1000</f>
+        <v>2876540</v>
       </c>
       <c r="L2">
-        <f>Folha1!L1*1000</f>
-        <v>2066489.9999999998</v>
+        <f>Aux!L1*1000</f>
+        <v>2876540</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f>Folha1!A2*1000</f>
-        <v>2066489.9999999998</v>
+        <f>Aux!A2*1000</f>
+        <v>2876540</v>
       </c>
       <c r="B3">
-        <f>Folha1!B2*1000</f>
-        <v>2066489.9999999998</v>
+        <f>Aux!B2*1000</f>
+        <v>2876540</v>
       </c>
       <c r="C3">
-        <f>Folha1!C2*1000</f>
-        <v>2062793.4838709675</v>
+        <f>Aux!C2*1000</f>
+        <v>2871390</v>
       </c>
       <c r="D3">
-        <f>Folha1!D2*1000</f>
-        <v>2053120.9333333331</v>
+        <f>Aux!D2*1000</f>
+        <v>2857930</v>
       </c>
       <c r="E3">
-        <f>Folha1!E2*1000</f>
-        <v>1994407.935483871</v>
+        <f>Aux!E2*1000</f>
+        <v>2776200</v>
       </c>
       <c r="F3">
-        <f>Folha1!F2*1000</f>
-        <v>1858314.5333333332</v>
+        <f>Aux!F2*1000</f>
+        <v>2586760</v>
       </c>
       <c r="G3">
-        <f>Folha1!G2*1000</f>
-        <v>1700534.9032258063</v>
+        <f>Aux!G2*1000</f>
+        <v>2367130</v>
       </c>
       <c r="H3">
-        <f>Folha1!H2*1000</f>
-        <v>1694990.1290322579</v>
+        <f>Aux!H2*1000</f>
+        <v>2359410</v>
       </c>
       <c r="I3">
-        <f>Folha1!I2*1000</f>
-        <v>1850675.0666666667</v>
+        <f>Aux!I2*1000</f>
+        <v>2576130</v>
       </c>
       <c r="J3">
-        <f>Folha1!J2*1000</f>
-        <v>2023980.0645161287</v>
+        <f>Aux!J2*1000</f>
+        <v>2817370</v>
       </c>
       <c r="K3">
-        <f>Folha1!K2*1000</f>
-        <v>2066489.9999999998</v>
+        <f>Aux!K2*1000</f>
+        <v>2876540</v>
       </c>
       <c r="L3">
-        <f>Folha1!L2*1000</f>
-        <v>2066489.9999999998</v>
+        <f>Aux!L2*1000</f>
+        <v>2876540</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f>Folha1!A3*1000</f>
-        <v>2066489.9999999998</v>
+        <f>Aux!A3*1000</f>
+        <v>2876540</v>
       </c>
       <c r="B4">
-        <f>Folha1!B3*1000</f>
-        <v>2066489.9999999998</v>
+        <f>Aux!B3*1000</f>
+        <v>2876540</v>
       </c>
       <c r="C4">
-        <f>Folha1!C3*1000</f>
-        <v>2062793.4838709675</v>
+        <f>Aux!C3*1000</f>
+        <v>2871390</v>
       </c>
       <c r="D4">
-        <f>Folha1!D3*1000</f>
-        <v>2053120.9333333331</v>
+        <f>Aux!D3*1000</f>
+        <v>2857930</v>
       </c>
       <c r="E4">
-        <f>Folha1!E3*1000</f>
-        <v>1994407.935483871</v>
+        <f>Aux!E3*1000</f>
+        <v>2776200</v>
       </c>
       <c r="F4">
-        <f>Folha1!F3*1000</f>
-        <v>1858314.5333333332</v>
+        <f>Aux!F3*1000</f>
+        <v>2586760</v>
       </c>
       <c r="G4">
-        <f>Folha1!G3*1000</f>
-        <v>1700534.9032258063</v>
+        <f>Aux!G3*1000</f>
+        <v>2367130</v>
       </c>
       <c r="H4">
-        <f>Folha1!H3*1000</f>
-        <v>1694990.1290322579</v>
+        <f>Aux!H3*1000</f>
+        <v>2359410</v>
       </c>
       <c r="I4">
-        <f>Folha1!I3*1000</f>
-        <v>1850675.0666666667</v>
+        <f>Aux!I3*1000</f>
+        <v>2576130</v>
       </c>
       <c r="J4">
-        <f>Folha1!J3*1000</f>
-        <v>2023980.0645161287</v>
+        <f>Aux!J3*1000</f>
+        <v>2817370</v>
       </c>
       <c r="K4">
-        <f>Folha1!K3*1000</f>
-        <v>2066489.9999999998</v>
+        <f>Aux!K3*1000</f>
+        <v>2876540</v>
       </c>
       <c r="L4">
-        <f>Folha1!L3*1000</f>
-        <v>2066489.9999999998</v>
+        <f>Aux!L3*1000</f>
+        <v>2876540</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f>Folha1!A4*1000</f>
-        <v>2066489.9999999998</v>
+        <f>Aux!A4*1000</f>
+        <v>2876540</v>
       </c>
       <c r="B5">
-        <f>Folha1!B4*1000</f>
-        <v>2066489.9999999998</v>
+        <f>Aux!B4*1000</f>
+        <v>2876540</v>
       </c>
       <c r="C5">
-        <f>Folha1!C4*1000</f>
-        <v>2062793.4838709675</v>
+        <f>Aux!C4*1000</f>
+        <v>2871390</v>
       </c>
       <c r="D5">
-        <f>Folha1!D4*1000</f>
-        <v>2053120.9333333331</v>
+        <f>Aux!D4*1000</f>
+        <v>2857930</v>
       </c>
       <c r="E5">
-        <f>Folha1!E4*1000</f>
-        <v>1994407.935483871</v>
+        <f>Aux!E4*1000</f>
+        <v>2776200</v>
       </c>
       <c r="F5">
-        <f>Folha1!F4*1000</f>
-        <v>1858314.5333333332</v>
+        <f>Aux!F4*1000</f>
+        <v>2586760</v>
       </c>
       <c r="G5">
-        <f>Folha1!G4*1000</f>
-        <v>1700534.9032258063</v>
+        <f>Aux!G4*1000</f>
+        <v>2367130</v>
       </c>
       <c r="H5">
-        <f>Folha1!H4*1000</f>
-        <v>1694990.1290322579</v>
+        <f>Aux!H4*1000</f>
+        <v>2359410</v>
       </c>
       <c r="I5">
-        <f>Folha1!I4*1000</f>
-        <v>1850675.0666666667</v>
+        <f>Aux!I4*1000</f>
+        <v>2576130</v>
       </c>
       <c r="J5">
-        <f>Folha1!J4*1000</f>
-        <v>2023980.0645161287</v>
+        <f>Aux!J4*1000</f>
+        <v>2817370</v>
       </c>
       <c r="K5">
-        <f>Folha1!K4*1000</f>
-        <v>2066489.9999999998</v>
+        <f>Aux!K4*1000</f>
+        <v>2876540</v>
       </c>
       <c r="L5">
-        <f>Folha1!L4*1000</f>
-        <v>2066489.9999999998</v>
+        <f>Aux!L4*1000</f>
+        <v>2876540</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f>Folha1!A5*1000</f>
-        <v>2066489.9999999998</v>
+        <f>Aux!A5*1000</f>
+        <v>2876540</v>
       </c>
       <c r="B6">
-        <f>Folha1!B5*1000</f>
-        <v>2066489.9999999998</v>
+        <f>Aux!B5*1000</f>
+        <v>2876540</v>
       </c>
       <c r="C6">
-        <f>Folha1!C5*1000</f>
-        <v>2062793.4838709675</v>
+        <f>Aux!C5*1000</f>
+        <v>2871390</v>
       </c>
       <c r="D6">
-        <f>Folha1!D5*1000</f>
-        <v>2053120.9333333331</v>
+        <f>Aux!D5*1000</f>
+        <v>2857930</v>
       </c>
       <c r="E6">
-        <f>Folha1!E5*1000</f>
-        <v>1994407.935483871</v>
+        <f>Aux!E5*1000</f>
+        <v>2776200</v>
       </c>
       <c r="F6">
-        <f>Folha1!F5*1000</f>
-        <v>1858314.5333333332</v>
+        <f>Aux!F5*1000</f>
+        <v>2586760</v>
       </c>
       <c r="G6">
-        <f>Folha1!G5*1000</f>
-        <v>1700534.9032258063</v>
+        <f>Aux!G5*1000</f>
+        <v>2367130</v>
       </c>
       <c r="H6">
-        <f>Folha1!H5*1000</f>
-        <v>1694990.1290322579</v>
+        <f>Aux!H5*1000</f>
+        <v>2359410</v>
       </c>
       <c r="I6">
-        <f>Folha1!I5*1000</f>
-        <v>1850675.0666666667</v>
+        <f>Aux!I5*1000</f>
+        <v>2576130</v>
       </c>
       <c r="J6">
-        <f>Folha1!J5*1000</f>
-        <v>2023980.0645161287</v>
+        <f>Aux!J5*1000</f>
+        <v>2817370</v>
       </c>
       <c r="K6">
-        <f>Folha1!K5*1000</f>
-        <v>2066489.9999999998</v>
+        <f>Aux!K5*1000</f>
+        <v>2876540</v>
       </c>
       <c r="L6">
-        <f>Folha1!L5*1000</f>
-        <v>2066489.9999999998</v>
+        <f>Aux!L5*1000</f>
+        <v>2876540</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f>Folha1!A6*1000</f>
-        <v>905793</v>
+        <f>Aux!A6*1000</f>
+        <v>1260850</v>
       </c>
       <c r="B7">
-        <f>Folha1!B6*1000</f>
-        <v>905793</v>
+        <f>Aux!B6*1000</f>
+        <v>1260850</v>
       </c>
       <c r="C7">
-        <f>Folha1!C6*1000</f>
-        <v>903941.45806451619</v>
+        <f>Aux!C6*1000</f>
+        <v>1258270</v>
       </c>
       <c r="D7">
-        <f>Folha1!D6*1000</f>
-        <v>899096.59</v>
+        <f>Aux!D6*1000</f>
+        <v>1251530</v>
       </c>
       <c r="E7">
-        <f>Folha1!E6*1000</f>
-        <v>869687.93225806451</v>
+        <f>Aux!E6*1000</f>
+        <v>1210590</v>
       </c>
       <c r="F7">
-        <f>Folha1!F6*1000</f>
-        <v>801520.33000000007</v>
+        <f>Aux!F6*1000</f>
+        <v>1115710</v>
       </c>
       <c r="G7">
-        <f>Folha1!G6*1000</f>
-        <v>722490.34838709666</v>
+        <f>Aux!G6*1000</f>
+        <v>1005700</v>
       </c>
       <c r="H7">
-        <f>Folha1!H6*1000</f>
-        <v>719713.035483871</v>
+        <f>Aux!H6*1000</f>
+        <v>1001830</v>
       </c>
       <c r="I7">
-        <f>Folha1!I6*1000</f>
-        <v>797693.80999999994</v>
+        <f>Aux!I6*1000</f>
+        <v>1110380</v>
       </c>
       <c r="J7">
-        <f>Folha1!J6*1000</f>
-        <v>884500.26774193544</v>
+        <f>Aux!J6*1000</f>
+        <v>1231210</v>
       </c>
       <c r="K7">
-        <f>Folha1!K6*1000</f>
-        <v>905793</v>
+        <f>Aux!K6*1000</f>
+        <v>1260850</v>
       </c>
       <c r="L7">
-        <f>Folha1!L6*1000</f>
-        <v>905793</v>
+        <f>Aux!L6*1000</f>
+        <v>1260850</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f>Folha1!A7*1000</f>
-        <v>905793</v>
+        <f>Aux!A7*1000</f>
+        <v>1260850</v>
       </c>
       <c r="B8">
-        <f>Folha1!B7*1000</f>
-        <v>905793</v>
+        <f>Aux!B7*1000</f>
+        <v>1260850</v>
       </c>
       <c r="C8">
-        <f>Folha1!C7*1000</f>
-        <v>903941.45806451619</v>
+        <f>Aux!C7*1000</f>
+        <v>1258270</v>
       </c>
       <c r="D8">
-        <f>Folha1!D7*1000</f>
-        <v>899096.59</v>
+        <f>Aux!D7*1000</f>
+        <v>1251530</v>
       </c>
       <c r="E8">
-        <f>Folha1!E7*1000</f>
-        <v>869687.93225806451</v>
+        <f>Aux!E7*1000</f>
+        <v>1210590</v>
       </c>
       <c r="F8">
-        <f>Folha1!F7*1000</f>
-        <v>801520.33000000007</v>
+        <f>Aux!F7*1000</f>
+        <v>1115710</v>
       </c>
       <c r="G8">
-        <f>Folha1!G7*1000</f>
-        <v>722490.34838709666</v>
+        <f>Aux!G7*1000</f>
+        <v>1005700</v>
       </c>
       <c r="H8">
-        <f>Folha1!H7*1000</f>
-        <v>719713.035483871</v>
+        <f>Aux!H7*1000</f>
+        <v>1001830</v>
       </c>
       <c r="I8">
-        <f>Folha1!I7*1000</f>
-        <v>797693.80999999994</v>
+        <f>Aux!I7*1000</f>
+        <v>1110380</v>
       </c>
       <c r="J8">
-        <f>Folha1!J7*1000</f>
-        <v>884500.26774193544</v>
+        <f>Aux!J7*1000</f>
+        <v>1231210</v>
       </c>
       <c r="K8">
-        <f>Folha1!K7*1000</f>
-        <v>905793</v>
+        <f>Aux!K7*1000</f>
+        <v>1260850</v>
       </c>
       <c r="L8">
-        <f>Folha1!L7*1000</f>
-        <v>905793</v>
+        <f>Aux!L7*1000</f>
+        <v>1260850</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f>Folha1!A8*1000</f>
-        <v>905793</v>
+        <f>Aux!A8*1000</f>
+        <v>1260850</v>
       </c>
       <c r="B9">
-        <f>Folha1!B8*1000</f>
-        <v>905793</v>
+        <f>Aux!B8*1000</f>
+        <v>1260850</v>
       </c>
       <c r="C9">
-        <f>Folha1!C8*1000</f>
-        <v>903941.45806451619</v>
+        <f>Aux!C8*1000</f>
+        <v>1258270</v>
       </c>
       <c r="D9">
-        <f>Folha1!D8*1000</f>
-        <v>899096.59</v>
+        <f>Aux!D8*1000</f>
+        <v>1251530</v>
       </c>
       <c r="E9">
-        <f>Folha1!E8*1000</f>
-        <v>869687.93225806451</v>
+        <f>Aux!E8*1000</f>
+        <v>1210590</v>
       </c>
       <c r="F9">
-        <f>Folha1!F8*1000</f>
-        <v>801520.33000000007</v>
+        <f>Aux!F8*1000</f>
+        <v>1115710</v>
       </c>
       <c r="G9">
-        <f>Folha1!G8*1000</f>
-        <v>722490.34838709666</v>
+        <f>Aux!G8*1000</f>
+        <v>1005700</v>
       </c>
       <c r="H9">
-        <f>Folha1!H8*1000</f>
-        <v>719713.035483871</v>
+        <f>Aux!H8*1000</f>
+        <v>1001830</v>
       </c>
       <c r="I9">
-        <f>Folha1!I8*1000</f>
-        <v>797693.80999999994</v>
+        <f>Aux!I8*1000</f>
+        <v>1110380</v>
       </c>
       <c r="J9">
-        <f>Folha1!J8*1000</f>
-        <v>884500.26774193544</v>
+        <f>Aux!J8*1000</f>
+        <v>1231210</v>
       </c>
       <c r="K9">
-        <f>Folha1!K8*1000</f>
-        <v>905793</v>
+        <f>Aux!K8*1000</f>
+        <v>1260850</v>
       </c>
       <c r="L9">
-        <f>Folha1!L8*1000</f>
-        <v>905793</v>
+        <f>Aux!L8*1000</f>
+        <v>1260850</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f>Folha1!A9*1000</f>
-        <v>905793</v>
+        <f>Aux!A9*1000</f>
+        <v>1260850</v>
       </c>
       <c r="B10">
-        <f>Folha1!B9*1000</f>
-        <v>905793</v>
+        <f>Aux!B9*1000</f>
+        <v>1260850</v>
       </c>
       <c r="C10">
-        <f>Folha1!C9*1000</f>
-        <v>903941.45806451619</v>
+        <f>Aux!C9*1000</f>
+        <v>1258270</v>
       </c>
       <c r="D10">
-        <f>Folha1!D9*1000</f>
-        <v>899096.59</v>
+        <f>Aux!D9*1000</f>
+        <v>1251530</v>
       </c>
       <c r="E10">
-        <f>Folha1!E9*1000</f>
-        <v>869687.93225806451</v>
+        <f>Aux!E9*1000</f>
+        <v>1210590</v>
       </c>
       <c r="F10">
-        <f>Folha1!F9*1000</f>
-        <v>801520.33000000007</v>
+        <f>Aux!F9*1000</f>
+        <v>1115710</v>
       </c>
       <c r="G10">
-        <f>Folha1!G9*1000</f>
-        <v>722490.34838709666</v>
+        <f>Aux!G9*1000</f>
+        <v>1005700</v>
       </c>
       <c r="H10">
-        <f>Folha1!H9*1000</f>
-        <v>719713.035483871</v>
+        <f>Aux!H9*1000</f>
+        <v>1001830</v>
       </c>
       <c r="I10">
-        <f>Folha1!I9*1000</f>
-        <v>797693.80999999994</v>
+        <f>Aux!I9*1000</f>
+        <v>1110380</v>
       </c>
       <c r="J10">
-        <f>Folha1!J9*1000</f>
-        <v>884500.26774193544</v>
+        <f>Aux!J9*1000</f>
+        <v>1231210</v>
       </c>
       <c r="K10">
-        <f>Folha1!K9*1000</f>
-        <v>905793</v>
+        <f>Aux!K9*1000</f>
+        <v>1260850</v>
       </c>
       <c r="L10">
-        <f>Folha1!L9*1000</f>
-        <v>905793</v>
+        <f>Aux!L9*1000</f>
+        <v>1260850</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f>Folha1!A10*1000</f>
-        <v>905793</v>
+        <f>Aux!A10*1000</f>
+        <v>1260850</v>
       </c>
       <c r="B11">
-        <f>Folha1!B10*1000</f>
-        <v>905793</v>
+        <f>Aux!B10*1000</f>
+        <v>1260850</v>
       </c>
       <c r="C11">
-        <f>Folha1!C10*1000</f>
-        <v>903941.45806451619</v>
+        <f>Aux!C10*1000</f>
+        <v>1258270</v>
       </c>
       <c r="D11">
-        <f>Folha1!D10*1000</f>
-        <v>899096.59</v>
+        <f>Aux!D10*1000</f>
+        <v>1251530</v>
       </c>
       <c r="E11">
-        <f>Folha1!E10*1000</f>
-        <v>869687.93225806451</v>
+        <f>Aux!E10*1000</f>
+        <v>1210590</v>
       </c>
       <c r="F11">
-        <f>Folha1!F10*1000</f>
-        <v>801520.33000000007</v>
+        <f>Aux!F10*1000</f>
+        <v>1115710</v>
       </c>
       <c r="G11">
-        <f>Folha1!G10*1000</f>
-        <v>722490.34838709666</v>
+        <f>Aux!G10*1000</f>
+        <v>1005700</v>
       </c>
       <c r="H11">
-        <f>Folha1!H10*1000</f>
-        <v>719713.035483871</v>
+        <f>Aux!H10*1000</f>
+        <v>1001830</v>
       </c>
       <c r="I11">
-        <f>Folha1!I10*1000</f>
-        <v>797693.80999999994</v>
+        <f>Aux!I10*1000</f>
+        <v>1110380</v>
       </c>
       <c r="J11">
-        <f>Folha1!J10*1000</f>
-        <v>884500.26774193544</v>
+        <f>Aux!J10*1000</f>
+        <v>1231210</v>
       </c>
       <c r="K11">
-        <f>Folha1!K10*1000</f>
-        <v>905793</v>
+        <f>Aux!K10*1000</f>
+        <v>1260850</v>
       </c>
       <c r="L11">
-        <f>Folha1!L10*1000</f>
-        <v>905793</v>
+        <f>Aux!L10*1000</f>
+        <v>1260850</v>
       </c>
     </row>
   </sheetData>
@@ -979,390 +979,410 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9429CE2-8DC0-6F44-B84D-21156D931939}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>2066.4899999999998</v>
+        <v>2876.54</v>
       </c>
       <c r="B1">
-        <v>2066.4899999999998</v>
+        <v>2876.54</v>
       </c>
       <c r="C1">
-        <v>2062.7934838709675</v>
+        <v>2871.39</v>
       </c>
       <c r="D1">
-        <v>2053.1209333333331</v>
+        <v>2857.93</v>
       </c>
       <c r="E1">
-        <v>1994.4079354838709</v>
+        <v>2776.2</v>
       </c>
       <c r="F1">
-        <v>1858.3145333333332</v>
+        <v>2586.7600000000002</v>
       </c>
       <c r="G1">
-        <v>1700.5349032258064</v>
+        <v>2367.13</v>
       </c>
       <c r="H1">
-        <v>1694.990129032258</v>
+        <v>2359.41</v>
       </c>
       <c r="I1">
-        <v>1850.6750666666667</v>
+        <v>2576.13</v>
       </c>
       <c r="J1">
-        <v>2023.9800645161288</v>
+        <v>2817.37</v>
       </c>
       <c r="K1">
-        <v>2066.4899999999998</v>
+        <v>2876.54</v>
       </c>
       <c r="L1">
-        <v>2066.4899999999998</v>
+        <v>2876.54</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2066.4899999999998</v>
+        <v>2876.54</v>
       </c>
       <c r="B2">
-        <v>2066.4899999999998</v>
+        <v>2876.54</v>
       </c>
       <c r="C2">
-        <v>2062.7934838709675</v>
+        <v>2871.39</v>
       </c>
       <c r="D2">
-        <v>2053.1209333333331</v>
+        <v>2857.93</v>
       </c>
       <c r="E2">
-        <v>1994.4079354838709</v>
+        <v>2776.2</v>
       </c>
       <c r="F2">
-        <v>1858.3145333333332</v>
+        <v>2586.7600000000002</v>
       </c>
       <c r="G2">
-        <v>1700.5349032258064</v>
+        <v>2367.13</v>
       </c>
       <c r="H2">
-        <v>1694.990129032258</v>
+        <v>2359.41</v>
       </c>
       <c r="I2">
-        <v>1850.6750666666667</v>
+        <v>2576.13</v>
       </c>
       <c r="J2">
-        <v>2023.9800645161288</v>
+        <v>2817.37</v>
       </c>
       <c r="K2">
-        <v>2066.4899999999998</v>
+        <v>2876.54</v>
       </c>
       <c r="L2">
-        <v>2066.4899999999998</v>
+        <v>2876.54</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2066.4899999999998</v>
+        <v>2876.54</v>
       </c>
       <c r="B3">
-        <v>2066.4899999999998</v>
+        <v>2876.54</v>
       </c>
       <c r="C3">
-        <v>2062.7934838709675</v>
+        <v>2871.39</v>
       </c>
       <c r="D3">
-        <v>2053.1209333333331</v>
+        <v>2857.93</v>
       </c>
       <c r="E3">
-        <v>1994.4079354838709</v>
+        <v>2776.2</v>
       </c>
       <c r="F3">
-        <v>1858.3145333333332</v>
+        <v>2586.7600000000002</v>
       </c>
       <c r="G3">
-        <v>1700.5349032258064</v>
+        <v>2367.13</v>
       </c>
       <c r="H3">
-        <v>1694.990129032258</v>
+        <v>2359.41</v>
       </c>
       <c r="I3">
-        <v>1850.6750666666667</v>
+        <v>2576.13</v>
       </c>
       <c r="J3">
-        <v>2023.9800645161288</v>
+        <v>2817.37</v>
       </c>
       <c r="K3">
-        <v>2066.4899999999998</v>
+        <v>2876.54</v>
       </c>
       <c r="L3">
-        <v>2066.4899999999998</v>
+        <v>2876.54</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2066.4899999999998</v>
+        <v>2876.54</v>
       </c>
       <c r="B4">
-        <v>2066.4899999999998</v>
+        <v>2876.54</v>
       </c>
       <c r="C4">
-        <v>2062.7934838709675</v>
+        <v>2871.39</v>
       </c>
       <c r="D4">
-        <v>2053.1209333333331</v>
+        <v>2857.93</v>
       </c>
       <c r="E4">
-        <v>1994.4079354838709</v>
+        <v>2776.2</v>
       </c>
       <c r="F4">
-        <v>1858.3145333333332</v>
+        <v>2586.7600000000002</v>
       </c>
       <c r="G4">
-        <v>1700.5349032258064</v>
+        <v>2367.13</v>
       </c>
       <c r="H4">
-        <v>1694.990129032258</v>
+        <v>2359.41</v>
       </c>
       <c r="I4">
-        <v>1850.6750666666667</v>
+        <v>2576.13</v>
       </c>
       <c r="J4">
-        <v>2023.9800645161288</v>
+        <v>2817.37</v>
       </c>
       <c r="K4">
-        <v>2066.4899999999998</v>
+        <v>2876.54</v>
       </c>
       <c r="L4">
-        <v>2066.4899999999998</v>
+        <v>2876.54</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2066.4899999999998</v>
+        <v>2876.54</v>
       </c>
       <c r="B5">
-        <v>2066.4899999999998</v>
+        <v>2876.54</v>
       </c>
       <c r="C5">
-        <v>2062.7934838709675</v>
+        <v>2871.39</v>
       </c>
       <c r="D5">
-        <v>2053.1209333333331</v>
+        <v>2857.93</v>
       </c>
       <c r="E5">
-        <v>1994.4079354838709</v>
+        <v>2776.2</v>
       </c>
       <c r="F5">
-        <v>1858.3145333333332</v>
+        <v>2586.7600000000002</v>
       </c>
       <c r="G5">
-        <v>1700.5349032258064</v>
+        <v>2367.13</v>
       </c>
       <c r="H5">
-        <v>1694.990129032258</v>
+        <v>2359.41</v>
       </c>
       <c r="I5">
-        <v>1850.6750666666667</v>
+        <v>2576.13</v>
       </c>
       <c r="J5">
-        <v>2023.9800645161288</v>
+        <v>2817.37</v>
       </c>
       <c r="K5">
-        <v>2066.4899999999998</v>
+        <v>2876.54</v>
       </c>
       <c r="L5">
-        <v>2066.4899999999998</v>
+        <v>2876.54</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>905.79300000000001</v>
+        <f>1260.85</f>
+        <v>1260.8499999999999</v>
       </c>
       <c r="B6">
-        <v>905.79300000000001</v>
+        <f t="shared" ref="B6:C10" si="0">1260.85</f>
+        <v>1260.8499999999999</v>
       </c>
       <c r="C6">
-        <v>903.94145806451615</v>
+        <v>1258.27</v>
       </c>
       <c r="D6">
-        <v>899.09658999999999</v>
+        <v>1251.53</v>
       </c>
       <c r="E6">
-        <v>869.68793225806451</v>
+        <v>1210.5899999999999</v>
       </c>
       <c r="F6">
-        <v>801.52033000000006</v>
+        <v>1115.71</v>
       </c>
       <c r="G6">
-        <v>722.49034838709667</v>
+        <v>1005.7</v>
       </c>
       <c r="H6">
-        <v>719.71303548387095</v>
+        <v>1001.83</v>
       </c>
       <c r="I6">
-        <v>797.69380999999998</v>
+        <v>1110.3800000000001</v>
       </c>
       <c r="J6">
-        <v>884.50026774193543</v>
+        <v>1231.21</v>
       </c>
       <c r="K6">
-        <v>905.79300000000001</v>
+        <f>1260.85</f>
+        <v>1260.8499999999999</v>
       </c>
       <c r="L6">
-        <v>905.79300000000001</v>
+        <f>1260.85</f>
+        <v>1260.8499999999999</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>905.79300000000001</v>
+        <f t="shared" ref="A7:A10" si="1">1260.85</f>
+        <v>1260.8499999999999</v>
       </c>
       <c r="B7">
-        <v>905.79300000000001</v>
+        <f t="shared" si="0"/>
+        <v>1260.8499999999999</v>
       </c>
       <c r="C7">
-        <v>903.94145806451615</v>
+        <v>1258.27</v>
       </c>
       <c r="D7">
-        <v>899.09658999999999</v>
+        <v>1251.53</v>
       </c>
       <c r="E7">
-        <v>869.68793225806451</v>
+        <v>1210.5899999999999</v>
       </c>
       <c r="F7">
-        <v>801.52033000000006</v>
+        <v>1115.71</v>
       </c>
       <c r="G7">
-        <v>722.49034838709667</v>
+        <v>1005.7</v>
       </c>
       <c r="H7">
-        <v>719.71303548387095</v>
+        <v>1001.83</v>
       </c>
       <c r="I7">
-        <v>797.69380999999998</v>
+        <v>1110.3800000000001</v>
       </c>
       <c r="J7">
-        <v>884.50026774193543</v>
+        <v>1231.21</v>
       </c>
       <c r="K7">
-        <v>905.79300000000001</v>
+        <f t="shared" ref="K7:L10" si="2">1260.85</f>
+        <v>1260.8499999999999</v>
       </c>
       <c r="L7">
-        <v>905.79300000000001</v>
+        <f t="shared" si="2"/>
+        <v>1260.8499999999999</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>905.79300000000001</v>
+        <f t="shared" si="1"/>
+        <v>1260.8499999999999</v>
       </c>
       <c r="B8">
-        <v>905.79300000000001</v>
+        <f t="shared" si="0"/>
+        <v>1260.8499999999999</v>
       </c>
       <c r="C8">
-        <v>903.94145806451615</v>
+        <v>1258.27</v>
       </c>
       <c r="D8">
-        <v>899.09658999999999</v>
+        <v>1251.53</v>
       </c>
       <c r="E8">
-        <v>869.68793225806451</v>
+        <v>1210.5899999999999</v>
       </c>
       <c r="F8">
-        <v>801.52033000000006</v>
+        <v>1115.71</v>
       </c>
       <c r="G8">
-        <v>722.49034838709667</v>
+        <v>1005.7</v>
       </c>
       <c r="H8">
-        <v>719.71303548387095</v>
+        <v>1001.83</v>
       </c>
       <c r="I8">
-        <v>797.69380999999998</v>
+        <v>1110.3800000000001</v>
       </c>
       <c r="J8">
-        <v>884.50026774193543</v>
+        <v>1231.21</v>
       </c>
       <c r="K8">
-        <v>905.79300000000001</v>
+        <f t="shared" si="2"/>
+        <v>1260.8499999999999</v>
       </c>
       <c r="L8">
-        <v>905.79300000000001</v>
+        <f t="shared" si="2"/>
+        <v>1260.8499999999999</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>905.79300000000001</v>
+        <f t="shared" si="1"/>
+        <v>1260.8499999999999</v>
       </c>
       <c r="B9">
-        <v>905.79300000000001</v>
+        <f t="shared" si="0"/>
+        <v>1260.8499999999999</v>
       </c>
       <c r="C9">
-        <v>903.94145806451615</v>
+        <v>1258.27</v>
       </c>
       <c r="D9">
-        <v>899.09658999999999</v>
+        <v>1251.53</v>
       </c>
       <c r="E9">
-        <v>869.68793225806451</v>
+        <v>1210.5899999999999</v>
       </c>
       <c r="F9">
-        <v>801.52033000000006</v>
+        <v>1115.71</v>
       </c>
       <c r="G9">
-        <v>722.49034838709667</v>
+        <v>1005.7</v>
       </c>
       <c r="H9">
-        <v>719.71303548387095</v>
+        <v>1001.83</v>
       </c>
       <c r="I9">
-        <v>797.69380999999998</v>
+        <v>1110.3800000000001</v>
       </c>
       <c r="J9">
-        <v>884.50026774193543</v>
+        <v>1231.21</v>
       </c>
       <c r="K9">
-        <v>905.79300000000001</v>
+        <f t="shared" si="2"/>
+        <v>1260.8499999999999</v>
       </c>
       <c r="L9">
-        <v>905.79300000000001</v>
+        <f t="shared" si="2"/>
+        <v>1260.8499999999999</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>905.79300000000001</v>
+        <f t="shared" si="1"/>
+        <v>1260.8499999999999</v>
       </c>
       <c r="B10">
-        <v>905.79300000000001</v>
+        <f t="shared" si="0"/>
+        <v>1260.8499999999999</v>
       </c>
       <c r="C10">
-        <v>903.94145806451615</v>
+        <v>1258.27</v>
       </c>
       <c r="D10">
-        <v>899.09658999999999</v>
+        <v>1251.53</v>
       </c>
       <c r="E10">
-        <v>869.68793225806451</v>
+        <v>1210.5899999999999</v>
       </c>
       <c r="F10">
-        <v>801.52033000000006</v>
+        <v>1115.71</v>
       </c>
       <c r="G10">
-        <v>722.49034838709667</v>
+        <v>1005.7</v>
       </c>
       <c r="H10">
-        <v>719.71303548387095</v>
+        <v>1001.83</v>
       </c>
       <c r="I10">
-        <v>797.69380999999998</v>
+        <v>1110.3800000000001</v>
       </c>
       <c r="J10">
-        <v>884.50026774193543</v>
+        <v>1231.21</v>
       </c>
       <c r="K10">
-        <v>905.79300000000001</v>
+        <f t="shared" si="2"/>
+        <v>1260.8499999999999</v>
       </c>
       <c r="L10">
-        <v>905.79300000000001</v>
+        <f t="shared" si="2"/>
+        <v>1260.8499999999999</v>
       </c>
     </row>
   </sheetData>
